--- a/biology/Médecine/Auxiliaire_médical_en_anesthésie_réanimation/Auxiliaire_médical_en_anesthésie_réanimation.xlsx
+++ b/biology/Médecine/Auxiliaire_médical_en_anesthésie_réanimation/Auxiliaire_médical_en_anesthésie_réanimation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auxiliaire_m%C3%A9dical_en_anesth%C3%A9sie_r%C3%A9animation</t>
+          <t>Auxiliaire_médical_en_anesthésie_réanimation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un auxiliaire médical en anesthésie réanimation (AMAR)  est un  professionnel de santé souvent appelé anesthésiste Dans le milieu hospitalier, l'AMAR est un praticien et clinicien spécialisé en anesthésie , médecine et réanimation  d'urgence et aussi dans la prise en charge de la douleur. Il exerce généralement au bloc opératoire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un auxiliaire médical en anesthésie réanimation (AMAR)  est un  professionnel de santé souvent appelé anesthésiste Dans le milieu hospitalier, l'AMAR est un praticien et clinicien spécialisé en anesthésie , médecine et réanimation  d'urgence et aussi dans la prise en charge de la douleur. Il exerce généralement au bloc opératoire.
 Cette appellation est bien répondu en Algérie depuis 1991 , le diplôme est équivalent au diplôme d'infirmier anesthésiste dans certains pays où technicien anesthésiste dans d'autres avec une différence dans le nombre d'années d'étude . 
 Avant 2011 l'accès à la formation d'AMAR était sous concours pour des études de Bac+3 reconnu comme une licence professionnelle dans la fonction publique. Après l'année 2011 l'accès à la formation d'AMAR est ouverte uniquement pour les infirmiers de santé publique licenciés avec 3 ans d'expériences dans le secteur étatique sous un concours national pour une formation supplémentaire de 2 années d'études, offrant à la fin un diplôme dans la fonction publique.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auxiliaire_m%C3%A9dical_en_anesth%C3%A9sie_r%C3%A9animation</t>
+          <t>Auxiliaire_médical_en_anesthésie_réanimation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Définition des tâches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les auxiliaires médicaux en anesthésie réanimation sont chargés en collaboration avec les médecins réanimateurs où en absence  sous l’autorité du responsable hiérarchique médical, notamment :
 d’accueillir et de soutenir psychologiquement le patient
